--- a/Latihan/hitung_word2vec_dr_program.xlsx
+++ b/Latihan/hitung_word2vec_dr_program.xlsx
@@ -644,208 +644,208 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.045418369517609</v>
+        <v>1.850261913743854</v>
       </c>
       <c r="C2" t="n">
-        <v>1.294500280018104</v>
+        <v>1.469410874715928</v>
       </c>
       <c r="D2" t="n">
-        <v>1.639155995299493</v>
+        <v>1.629648585970308</v>
       </c>
       <c r="E2" t="n">
-        <v>1.12596579875443</v>
+        <v>0.9265202653554844</v>
       </c>
       <c r="F2" t="n">
-        <v>1.332677737978455</v>
+        <v>1.014253270861578</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8665825611717192</v>
+        <v>1.057203089427941</v>
       </c>
       <c r="H2" t="n">
-        <v>1.82394244332677</v>
+        <v>1.651900931102929</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9899082707867422</v>
+        <v>1.231987447140614</v>
       </c>
       <c r="J2" t="n">
-        <v>1.443868372441141</v>
+        <v>1.15907209612005</v>
       </c>
       <c r="K2" t="n">
-        <v>1.938305466808502</v>
+        <v>1.761839221062874</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6463177583588682</v>
+        <v>0.6822514000332059</v>
       </c>
       <c r="M2" t="n">
-        <v>1.341539801257303</v>
+        <v>1.293635717683608</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9371120795982533</v>
+        <v>0.8119956550131171</v>
       </c>
       <c r="O2" t="n">
-        <v>1.399185485711807</v>
+        <v>1.047391147512104</v>
       </c>
       <c r="P2" t="n">
-        <v>1.04855178569815</v>
+        <v>0.9547810216497636</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.156095081603482</v>
+        <v>0.8949365687413144</v>
       </c>
       <c r="R2" t="n">
-        <v>1.196147929268327</v>
+        <v>0.9035027207982101</v>
       </c>
       <c r="S2" t="n">
-        <v>1.629412262960497</v>
+        <v>1.345735787755146</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6466730088811681</v>
+        <v>0.7126100893037282</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8331309209721791</v>
+        <v>0.9578568842846324</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6451994317815112</v>
+        <v>0.7771836902870231</v>
       </c>
       <c r="W2" t="n">
-        <v>1.455984341333731</v>
+        <v>1.640135527211315</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5801175003230792</v>
+        <v>0.5327415034711586</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.57473947793771</v>
+        <v>1.419272356569444</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.281590184126276</v>
+        <v>1.298632085700143</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.242000737068172</v>
+        <v>1.087694395553419</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.042610520632004</v>
+        <v>1.253534322982276</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8408843872981039</v>
+        <v>0.705854889980075</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.8885392907237482</v>
+        <v>0.8098759296856133</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.165780776777517</v>
+        <v>0.9751423206332148</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6252342846924477</v>
+        <v>0.7336082567342594</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.310288099312715</v>
+        <v>1.166776991924067</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.020145504188389</v>
+        <v>1.162717513938191</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.4943247312400629</v>
+        <v>0.481641631861629</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.22555959665914</v>
+        <v>1.392560444139549</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.3875921025474939</v>
+        <v>0.4372267781486846</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.651408141614296</v>
+        <v>1.484454408781448</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.23591929813182</v>
+        <v>1.30971402825399</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.8272949273487155</v>
+        <v>0.7970330646661928</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.041758174069734</v>
+        <v>1.075487227243037</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.112596993229462</v>
+        <v>1.270128792390167</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.710711188048018</v>
+        <v>1.502978821415779</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.609774118489696</v>
+        <v>1.743656819079335</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.9934915919808134</v>
+        <v>1.009822162367084</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.245411584265183</v>
+        <v>1.081191549129136</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.494147060000666</v>
+        <v>1.095054190018854</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.309068381584435</v>
+        <v>1.162927443392192</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.091324592778481</v>
+        <v>1.142239175093493</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.270684966399681</v>
+        <v>0.9416670904370698</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.887307803942168</v>
+        <v>1.64326542122936</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.566076992694327</v>
+        <v>1.22290088088102</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.045567928015552</v>
+        <v>0.7520531805774764</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.626022014191921</v>
+        <v>1.5419417595476</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.191940559674155</v>
+        <v>1.111219068052463</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.7036846056066484</v>
+        <v>0.8401176904126548</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.326660519390826</v>
+        <v>1.025957089669029</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.643956695655288</v>
+        <v>1.431980151795706</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.753003077626104</v>
+        <v>1.730849898711091</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.226422674639177</v>
+        <v>1.096068436117079</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.991392427999897</v>
+        <v>1.051132614348167</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.216186738053381</v>
+        <v>1.119270594007627</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.5663303763090555</v>
+        <v>0.6559586884947018</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.143015474052975</v>
+        <v>1.167474104426602</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.319902730954589</v>
+        <v>1.319000072113414</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.522919695105199</v>
+        <v>1.229611510730686</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.391820024854881</v>
+        <v>1.703803659177356</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.6049294433407927</v>
+        <v>0.4626115973824857</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.717097409195486</v>
+        <v>1.322739297457299</v>
       </c>
     </row>
   </sheetData>

--- a/Latihan/hitung_word2vec_dr_program.xlsx
+++ b/Latihan/hitung_word2vec_dr_program.xlsx
@@ -644,208 +644,208 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.850261913743854</v>
+        <v>1.897634203104819</v>
       </c>
       <c r="C2" t="n">
-        <v>1.469410874715928</v>
+        <v>1.254056433641754</v>
       </c>
       <c r="D2" t="n">
-        <v>1.629648585970308</v>
+        <v>1.529165123984477</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9265202653554844</v>
+        <v>0.9881242238840154</v>
       </c>
       <c r="F2" t="n">
-        <v>1.014253270861578</v>
+        <v>1.142855355319141</v>
       </c>
       <c r="G2" t="n">
-        <v>1.057203089427941</v>
+        <v>0.8543194252999451</v>
       </c>
       <c r="H2" t="n">
-        <v>1.651900931102929</v>
+        <v>1.611277549414992</v>
       </c>
       <c r="I2" t="n">
-        <v>1.231987447140614</v>
+        <v>0.9975337610403533</v>
       </c>
       <c r="J2" t="n">
-        <v>1.15907209612005</v>
+        <v>1.320417959621413</v>
       </c>
       <c r="K2" t="n">
-        <v>1.761839221062874</v>
+        <v>1.738372392912736</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6822514000332059</v>
+        <v>0.6494131968766612</v>
       </c>
       <c r="M2" t="n">
-        <v>1.293635717683608</v>
+        <v>1.183538294372948</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8119956550131171</v>
+        <v>0.7877826687221167</v>
       </c>
       <c r="O2" t="n">
-        <v>1.047391147512104</v>
+        <v>1.210670621253807</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9547810216497636</v>
+        <v>0.9336014147415075</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8949365687413144</v>
+        <v>0.9623923314984253</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9035027207982101</v>
+        <v>1.081973540203982</v>
       </c>
       <c r="S2" t="n">
-        <v>1.345735787755146</v>
+        <v>1.434661895252246</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7126100893037282</v>
+        <v>0.6301894083490382</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9578568842846324</v>
+        <v>0.8596966368081983</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7771836902870231</v>
+        <v>0.6063300554203686</v>
       </c>
       <c r="W2" t="n">
-        <v>1.640135527211315</v>
+        <v>1.418754824625335</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5327415034711586</v>
+        <v>0.5144090386157715</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.419272356569444</v>
+        <v>1.470762811367454</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.298632085700143</v>
+        <v>1.138525130792459</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.087694395553419</v>
+        <v>1.035403282981036</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.253534322982276</v>
+        <v>1.001353994660328</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.705854889980075</v>
+        <v>0.7885355107512333</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.8098759296856133</v>
+        <v>0.7496828165983005</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.9751423206332148</v>
+        <v>1.049063266176286</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.7336082567342594</v>
+        <v>0.590180912622841</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.166776991924067</v>
+        <v>1.133006420594765</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.162717513938191</v>
+        <v>1.03264915976149</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.481641631861629</v>
+        <v>0.4688875140251326</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.392560444139549</v>
+        <v>1.135659276802171</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.4372267781486846</v>
+        <v>0.3681645317018493</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.484454408781448</v>
+        <v>1.436033611943934</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.30971402825399</v>
+        <v>1.190510453783871</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.7970330646661928</v>
+        <v>0.78143035964492</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.075487227243037</v>
+        <v>0.9003033062535488</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.270128792390167</v>
+        <v>1.019551944834809</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.502978821415779</v>
+        <v>1.600814998257359</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.743656819079335</v>
+        <v>1.523158130447491</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.009822162367084</v>
+        <v>0.8474882670820612</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.081191549129136</v>
+        <v>1.031284624925785</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.095054190018854</v>
+        <v>1.342241634408169</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.162927443392192</v>
+        <v>1.192425153865017</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.142239175093493</v>
+        <v>1.094574319958551</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.9416670904370698</v>
+        <v>1.146072446769308</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.64326542122936</v>
+        <v>1.69514741063647</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.22290088088102</v>
+        <v>1.388672472875898</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.7520531805774764</v>
+        <v>0.8857356921967998</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.5419417595476</v>
+        <v>1.440890196012524</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.111219068052463</v>
+        <v>1.093931138481185</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.8401176904126548</v>
+        <v>0.642235377146066</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.025957089669029</v>
+        <v>1.136507122547737</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.431980151795706</v>
+        <v>1.447864972170322</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.730849898711091</v>
+        <v>1.587421972064549</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.096068436117079</v>
+        <v>1.084944137470684</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.051132614348167</v>
+        <v>0.8690522197111843</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.119270594007627</v>
+        <v>1.012951628894537</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.6559586884947018</v>
+        <v>0.4821421395876064</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.167474104426602</v>
+        <v>1.061913903146041</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.319000072113414</v>
+        <v>1.259337947998083</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.229611510730686</v>
+        <v>1.326334719013902</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.703803659177356</v>
+        <v>1.390109018818966</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.4626115973824857</v>
+        <v>0.5030650151209004</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.322739297457299</v>
+        <v>1.574911872870966</v>
       </c>
     </row>
   </sheetData>
